--- a/src/databases/outputs_OM.xlsx
+++ b/src/databases/outputs_OM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchainho\Documents\GitHub\DTOcean-WP5-Installation\src\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pchainho\Documents\DTOcean-WP5-Installation\src\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="OM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -121,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,21 +252,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -636,52 +621,10 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1015,10 +958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,157 +989,157 @@
     <col min="25" max="25" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="4">
         <v>80</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="4">
         <v>-20</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="19">
+      <c r="J2" s="5">
         <v>0.5</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="4">
         <v>1.5</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="4">
         <v>1.5</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="4">
         <v>0</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="4">
         <v>18</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="4">
         <v>0</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="4">
         <v>0</v>
       </c>
-      <c r="R2" s="18">
+      <c r="R2" s="4">
         <v>0</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="4">
         <v>20</v>
       </c>
-      <c r="T2" s="18">
+      <c r="T2" s="4">
         <v>0</v>
       </c>
-      <c r="U2" s="18">
+      <c r="U2" s="4">
         <v>4</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="4">
         <v>140</v>
       </c>
-      <c r="W2" s="18">
+      <c r="W2" s="4">
         <v>2.5</v>
       </c>
-      <c r="X2" s="18">
+      <c r="X2" s="4">
         <v>1.4</v>
       </c>
-      <c r="Y2" s="18">
+      <c r="Y2" s="4">
         <v>0.86</v>
       </c>
     </row>
@@ -1212,207 +1155,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-    </row>
-    <row r="10" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-    </row>
-    <row r="12" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="4"/>
-    </row>
-    <row r="15" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="B9:Y9"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="W11:Y11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>